--- a/documents/HazTrain Pipeline.xlsx
+++ b/documents/HazTrain Pipeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267F49E-C242-4676-9B30-5920F349BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F0C78B-23C7-4B62-B3BB-70CD44CE3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34950" yWindow="1570" windowWidth="34490" windowHeight="18230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33650" yWindow="1520" windowWidth="31390" windowHeight="19290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="133">
   <si>
     <t>Training</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>army corp</t>
+  </si>
+  <si>
+    <t>fense to fense</t>
+  </si>
+  <si>
+    <t>bhate</t>
+  </si>
+  <si>
+    <t>Naval</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,88 +1221,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,85 +1305,82 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3243,7 +3246,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3277,53 +3280,53 @@
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="51" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:30" s="50" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="46" t="s">
         <v>124</v>
       </c>
       <c r="Q1" s="39" t="s">
@@ -3341,1279 +3344,1279 @@
       <c r="U1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="48">
+      <c r="V1" s="47">
         <v>2022</v>
       </c>
-      <c r="W1" s="48">
+      <c r="W1" s="47">
         <v>2023</v>
       </c>
-      <c r="X1" s="48">
+      <c r="X1" s="47">
         <v>2024</v>
       </c>
-      <c r="Y1" s="49">
+      <c r="Y1" s="48">
         <v>2025</v>
       </c>
-      <c r="Z1" s="49">
+      <c r="Z1" s="48">
         <v>2026</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="48">
         <v>2027</v>
       </c>
-      <c r="AB1" s="49">
+      <c r="AB1" s="48">
         <v>2028</v>
       </c>
-      <c r="AC1" s="50">
+      <c r="AC1" s="49">
         <v>2029</v>
       </c>
-      <c r="AD1" s="50">
+      <c r="AD1" s="49">
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="62" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="62">
+    <row r="2" spans="1:30" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57">
+      <c r="H2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56">
         <v>43191</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="56">
         <v>45016</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="Q2" s="57">
         <f>90000*5</f>
         <v>450000</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="59">
+      <c r="S2" s="54"/>
+      <c r="T2" s="58">
         <v>43191</v>
       </c>
-      <c r="U2" s="59">
+      <c r="U2" s="58">
         <v>45016</v>
       </c>
-      <c r="V2" s="58">
+      <c r="V2" s="57">
         <v>85000</v>
       </c>
-      <c r="W2" s="58">
+      <c r="W2" s="57">
         <f>V2/12*3</f>
         <v>21250</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-    </row>
-    <row r="3" spans="1:30" s="62" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="62">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="60"/>
+    </row>
+    <row r="3" spans="1:30" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="61">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57">
+      <c r="H3" s="62"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56">
         <v>43191</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="56">
         <v>45016</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="57">
         <f>95000*5</f>
         <v>475000</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="59">
+      <c r="S3" s="54"/>
+      <c r="T3" s="58">
         <v>43191</v>
       </c>
-      <c r="U3" s="59">
+      <c r="U3" s="58">
         <v>45016</v>
       </c>
-      <c r="V3" s="58">
+      <c r="V3" s="57">
         <v>92000</v>
       </c>
-      <c r="W3" s="58">
+      <c r="W3" s="57">
         <f>V3/12*3</f>
         <v>23000</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="61"/>
-    </row>
-    <row r="4" spans="1:30" s="62" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+    </row>
+    <row r="4" spans="1:30" s="61" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="65">
         <v>43647</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="56">
         <v>43663</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="56">
         <v>45473</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="58">
+      <c r="Q4" s="57">
         <f>95034+(4*104000)</f>
         <v>511034</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="59">
+      <c r="S4" s="54"/>
+      <c r="T4" s="58">
         <v>43659</v>
       </c>
-      <c r="U4" s="59">
+      <c r="U4" s="58">
         <v>45473</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="57">
         <v>103966</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="57">
         <f>V4</f>
         <v>103966</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="57">
         <f>W4/12*6</f>
         <v>51983</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="61"/>
-    </row>
-    <row r="5" spans="1:30" s="62" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="62">
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="60"/>
+    </row>
+    <row r="5" spans="1:30" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="64" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="65">
         <v>43631</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <v>43631</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <v>45457</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="58">
+      <c r="Q5" s="57">
         <f>225000*5</f>
         <v>1125000</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="55"/>
-      <c r="T5" s="59">
+      <c r="S5" s="54"/>
+      <c r="T5" s="58">
         <v>43631</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="58">
         <v>45457</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="57">
         <v>225000</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="57">
         <f>V5</f>
         <v>225000</v>
       </c>
-      <c r="X5" s="58">
+      <c r="X5" s="57">
         <f>W5/12*6</f>
         <v>112500</v>
       </c>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="61"/>
-    </row>
-    <row r="6" spans="1:30" s="62" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="62">
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="60"/>
+    </row>
+    <row r="6" spans="1:30" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="64" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="65">
         <v>43709</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <v>43709</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>45350</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="58">
+      <c r="Q6" s="57">
         <f>85000+(4*171000)</f>
         <v>769000</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="59">
+      <c r="S6" s="54"/>
+      <c r="T6" s="58">
         <v>43709</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="58">
         <v>45350</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="57">
         <v>171000</v>
       </c>
-      <c r="W6" s="58">
+      <c r="W6" s="57">
         <v>171000</v>
       </c>
-      <c r="X6" s="58">
+      <c r="X6" s="57">
         <f>W6/12*2</f>
         <v>28500</v>
       </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-    </row>
-    <row r="7" spans="1:30" s="67" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="62">
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="60"/>
+    </row>
+    <row r="7" spans="1:30" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="64" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="65">
         <v>43636</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <v>43642</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <v>45468</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="57">
         <v>3550000</v>
       </c>
-      <c r="R7" s="55" t="s">
+      <c r="R7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="T7" s="59">
+      <c r="S7" s="54"/>
+      <c r="T7" s="58">
         <v>43642</v>
       </c>
-      <c r="U7" s="59">
+      <c r="U7" s="58">
         <v>45468</v>
       </c>
-      <c r="V7" s="58">
+      <c r="V7" s="57">
         <v>1348428.25</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="57">
         <v>1348428.25</v>
       </c>
-      <c r="X7" s="58">
+      <c r="X7" s="57">
         <f>W7/12*6</f>
         <v>674214.125</v>
       </c>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-    </row>
-    <row r="8" spans="1:30" s="67" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="62">
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="60"/>
+    </row>
+    <row r="8" spans="1:30" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="105">
+      <c r="G8" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="105"/>
+      <c r="I8" s="102">
         <v>43684</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="102">
         <v>43685</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="102">
         <v>44998</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55" t="s">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="Q8" s="57">
         <v>6243077</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="59">
+      <c r="T8" s="58">
         <v>43685</v>
       </c>
-      <c r="U8" s="59">
+      <c r="U8" s="58">
         <v>44780</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="57">
         <v>1838191</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="67">
         <v>700000</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="67">
         <v>400000</v>
       </c>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-    </row>
-    <row r="9" spans="1:30" s="62" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="62">
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="60"/>
+    </row>
+    <row r="9" spans="1:30" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="61">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="56">
         <v>43282</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="56">
         <v>43344</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="56">
         <v>45169</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="57">
         <v>5100870</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="55"/>
-      <c r="T9" s="59">
+      <c r="S9" s="54"/>
+      <c r="T9" s="58">
         <v>43344</v>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="69">
         <v>45535</v>
       </c>
-      <c r="V9" s="72">
+      <c r="V9" s="70">
         <v>1000000</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="67">
         <v>1000000</v>
       </c>
-      <c r="X9" s="69">
+      <c r="X9" s="67">
         <v>700000</v>
       </c>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-    </row>
-    <row r="10" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="62">
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+    </row>
+    <row r="10" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="56">
         <v>43492</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="56">
         <v>43862</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="56">
         <v>45688</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55" t="s">
+      <c r="O10" s="54"/>
+      <c r="P10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="57">
         <v>9743180.0999999996</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="59">
+      <c r="S10" s="54"/>
+      <c r="T10" s="58">
         <v>43862</v>
       </c>
-      <c r="U10" s="59">
+      <c r="U10" s="58">
         <v>45688</v>
       </c>
-      <c r="V10" s="72">
+      <c r="V10" s="70">
         <v>1943282.21</v>
       </c>
-      <c r="W10" s="72">
+      <c r="W10" s="70">
         <v>1949101.08</v>
       </c>
-      <c r="X10" s="72">
+      <c r="X10" s="70">
         <v>1953517.92</v>
       </c>
-      <c r="Y10" s="72">
+      <c r="Y10" s="70">
         <f>X10/12*1</f>
         <v>162793.16</v>
       </c>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
-    </row>
-    <row r="11" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="62">
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="60"/>
+    </row>
+    <row r="11" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="104" t="s">
+      <c r="G11" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="102">
         <v>43770</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="102">
         <v>43770</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="102">
         <v>45777</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="102" t="s">
+      <c r="M11" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102" t="s">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="99">
+      <c r="Q11" s="96">
         <v>3571886.19</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="55"/>
-      <c r="T11" s="59">
+      <c r="S11" s="54"/>
+      <c r="T11" s="58">
         <v>43770</v>
       </c>
-      <c r="U11" s="59">
+      <c r="U11" s="58">
         <v>45767</v>
       </c>
-      <c r="V11" s="72">
+      <c r="V11" s="70">
         <v>601375.18999999994</v>
       </c>
-      <c r="W11" s="72">
+      <c r="W11" s="70">
         <v>639031.03</v>
       </c>
-      <c r="X11" s="72">
+      <c r="X11" s="70">
         <v>679690.21</v>
       </c>
-      <c r="Y11" s="72">
+      <c r="Y11" s="70">
         <f>X11/12*4</f>
         <v>226563.40333333332</v>
       </c>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-    </row>
-    <row r="12" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="62">
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="60"/>
+    </row>
+    <row r="12" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="61">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="73" t="s">
+      <c r="G12" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>44301</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="56">
         <v>44302</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="56">
         <v>46127</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="55" t="s">
+      <c r="O12" s="73"/>
+      <c r="P12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="70">
         <v>3037919.65</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="76">
+      <c r="S12" s="54"/>
+      <c r="T12" s="74">
         <v>44302</v>
       </c>
-      <c r="U12" s="76">
+      <c r="U12" s="74">
         <v>46127</v>
       </c>
-      <c r="V12" s="72">
+      <c r="V12" s="70">
         <v>587168.36</v>
       </c>
-      <c r="W12" s="72">
+      <c r="W12" s="70">
         <v>605870.11</v>
       </c>
-      <c r="X12" s="72">
+      <c r="X12" s="70">
         <v>625219.78</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="70">
         <v>644702.93999999994</v>
       </c>
-      <c r="Z12" s="60">
+      <c r="Z12" s="59">
         <f>Y12*0.25</f>
         <v>161175.73499999999</v>
       </c>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-    </row>
-    <row r="13" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="62">
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="60"/>
+    </row>
+    <row r="13" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64" t="s">
+      <c r="F13" s="64"/>
+      <c r="G13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="114">
+      <c r="I13" s="111">
         <v>43709</v>
       </c>
-      <c r="J13" s="115">
+      <c r="J13" s="112">
         <v>43709</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="114">
         <v>45838</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="55" t="s">
+      <c r="O13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="70">
         <v>450475</v>
       </c>
-      <c r="R13" s="55" t="s">
+      <c r="R13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="76">
+      <c r="S13" s="54"/>
+      <c r="T13" s="74">
         <v>44372</v>
       </c>
-      <c r="U13" s="76">
+      <c r="U13" s="74">
         <v>45832</v>
       </c>
-      <c r="V13" s="72"/>
-      <c r="W13" s="116">
+      <c r="V13" s="70"/>
+      <c r="W13" s="113">
         <v>129125</v>
       </c>
-      <c r="X13" s="116">
+      <c r="X13" s="113">
         <v>131750</v>
       </c>
-      <c r="Y13" s="116">
+      <c r="Y13" s="113">
         <f>133600/2</f>
         <v>66800</v>
       </c>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-    </row>
-    <row r="14" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="62">
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="60"/>
+    </row>
+    <row r="14" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="56">
         <v>44105</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="56">
         <v>44105</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="56">
         <v>45930</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="55" t="s">
+      <c r="O14" s="73"/>
+      <c r="P14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="72">
+      <c r="Q14" s="70">
         <f>105600+108768+112031+115392+118854</f>
         <v>560645</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="76">
+      <c r="S14" s="54"/>
+      <c r="T14" s="74">
         <v>44105</v>
       </c>
-      <c r="U14" s="76">
+      <c r="U14" s="74">
         <v>45930</v>
       </c>
-      <c r="V14" s="72">
+      <c r="V14" s="70">
         <v>108768</v>
       </c>
-      <c r="W14" s="72">
+      <c r="W14" s="70">
         <v>112031</v>
       </c>
-      <c r="X14" s="72">
+      <c r="X14" s="70">
         <v>115392</v>
       </c>
-      <c r="Y14" s="72">
+      <c r="Y14" s="70">
         <f>X14/12*9</f>
         <v>86544</v>
       </c>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
-    </row>
-    <row r="15" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="62">
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
+    </row>
+    <row r="15" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="61">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="116">
         <v>44784</v>
       </c>
-      <c r="J15" s="119">
+      <c r="J15" s="116">
         <v>44805</v>
       </c>
-      <c r="K15" s="120">
+      <c r="K15" s="117">
         <v>46446</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="55" t="s">
+      <c r="O15" s="73"/>
+      <c r="P15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="70">
         <v>545712</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="76">
+      <c r="S15" s="54"/>
+      <c r="T15" s="74">
         <v>44805</v>
       </c>
-      <c r="U15" s="76">
+      <c r="U15" s="74">
         <v>46446</v>
       </c>
-      <c r="V15" s="72">
+      <c r="V15" s="70">
         <f>9250*4</f>
         <v>37000</v>
       </c>
-      <c r="W15" s="72">
+      <c r="W15" s="70">
         <f>(9250*2)+(9620*10)</f>
         <v>114700</v>
       </c>
-      <c r="X15" s="72">
+      <c r="X15" s="70">
         <f>(9620*2)+(10005*10)</f>
         <v>119290</v>
       </c>
-      <c r="Y15" s="72">
+      <c r="Y15" s="70">
         <f>(10005*2)+(10*10405)</f>
         <v>124060</v>
       </c>
-      <c r="Z15" s="60">
+      <c r="Z15" s="59">
         <f>(2*10405)+(10*10821)</f>
         <v>129020</v>
       </c>
-      <c r="AA15" s="60">
+      <c r="AA15" s="59">
         <f>2*10821</f>
         <v>21642</v>
       </c>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="61"/>
-    </row>
-    <row r="16" spans="1:30" s="67" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="62">
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
+    </row>
+    <row r="16" spans="1:30" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="79">
         <v>44593</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="79">
         <v>44621</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="79">
         <v>46418</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="83"/>
-      <c r="P16" s="63" t="s">
+      <c r="O16" s="81"/>
+      <c r="P16" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="82">
         <v>15534355.34</v>
       </c>
-      <c r="R16" s="63" t="s">
+      <c r="R16" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="63"/>
-      <c r="T16" s="85">
+      <c r="S16" s="62"/>
+      <c r="T16" s="83">
         <v>44621</v>
       </c>
-      <c r="U16" s="85">
+      <c r="U16" s="83">
         <v>46418</v>
       </c>
-      <c r="V16" s="84">
+      <c r="V16" s="82">
         <v>2814083.92</v>
       </c>
-      <c r="W16" s="84">
+      <c r="W16" s="82">
         <f>2085330+1027883</f>
         <v>3113213</v>
       </c>
-      <c r="X16" s="118">
+      <c r="X16" s="115">
         <f>920478+2006206</f>
         <v>2926684</v>
       </c>
-      <c r="Y16" s="84">
+      <c r="Y16" s="82">
         <f>2154957+1016666</f>
         <v>3171623</v>
       </c>
-      <c r="Z16" s="60">
+      <c r="Z16" s="59">
         <f>1000891+2247030</f>
         <v>3247921</v>
       </c>
-      <c r="AA16" s="60">
+      <c r="AA16" s="59">
         <v>257000</v>
       </c>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="61"/>
-    </row>
-    <row r="17" spans="1:30" s="67" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="62">
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+    </row>
+    <row r="17" spans="1:30" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="61">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="61">
         <v>7</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="81">
+      <c r="H17" s="87"/>
+      <c r="I17" s="79">
         <v>45061</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="79">
         <v>45108</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="79">
         <v>46934</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="87" t="s">
+      <c r="M17" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="87" t="s">
+      <c r="N17" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87" t="s">
+      <c r="O17" s="85"/>
+      <c r="P17" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="88">
         <v>19747901</v>
       </c>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="87" t="s">
+      <c r="S17" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="91">
+      <c r="T17" s="89">
         <v>45108</v>
       </c>
-      <c r="U17" s="91">
+      <c r="U17" s="89">
         <v>46934</v>
       </c>
-      <c r="V17" s="90">
+      <c r="V17" s="88">
         <v>3000000</v>
       </c>
-      <c r="W17" s="90">
+      <c r="W17" s="88">
         <f>Q17/5/2</f>
         <v>1974790.1</v>
       </c>
-      <c r="X17" s="90">
+      <c r="X17" s="88">
         <f>Q17/5</f>
         <v>3949580.2</v>
       </c>
-      <c r="Y17" s="90">
+      <c r="Y17" s="88">
         <f>Q17/5</f>
         <v>3949580.2</v>
       </c>
-      <c r="Z17" s="90">
+      <c r="Z17" s="88">
         <f>Q17/5</f>
         <v>3949580.2</v>
       </c>
-      <c r="AA17" s="90">
+      <c r="AA17" s="88">
         <f>Q17/5</f>
         <v>3949580.2</v>
       </c>
-      <c r="AB17" s="90">
+      <c r="AB17" s="88">
         <f>W17</f>
         <v>1974790.1</v>
       </c>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="61"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="60"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C18"/>
@@ -4706,8 +4709,12 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+      <c r="E26" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
       <c r="G26"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -4717,8 +4724,12 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
       <c r="G27"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4728,8 +4739,12 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
       <c r="G28"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4739,8 +4754,12 @@
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
       <c r="G29"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -5123,8 +5142,8 @@
       <c r="S1"/>
       <c r="U1" s="8"/>
       <c r="V1" s="7"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
       <c r="Y1" s="7"/>
       <c r="AD1" s="9"/>
     </row>
@@ -5132,63 +5151,63 @@
       <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="103">
         <v>11</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="57">
+      <c r="G2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="56">
         <v>45170</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="56">
         <v>45200</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="56">
         <v>47026</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="60">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="59">
         <v>12000000</v>
       </c>
-      <c r="R2" s="96">
+      <c r="R2" s="93">
         <v>0.2</v>
       </c>
-      <c r="S2" s="97">
+      <c r="S2" s="94">
         <f t="shared" ref="S2" si="0">Q2*R2</f>
         <v>2400000</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="6">
         <f>(K2-J2)/364</f>
         <v>5.0164835164835164</v>
       </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="60">
+      <c r="W2" s="59">
         <f>IF(OR(YEAR($K2)&lt;W$1,YEAR($J2)&gt;W$1),0,IF(YEAR($J2)=W$1,13-MONTH($J2),IF(YEAR($K2)=W$1,MONTH($K2),12)))*($S2/12)/($K2-$J2)*364</f>
         <v>0</v>
       </c>
-      <c r="X2" s="60">
+      <c r="X2" s="59">
         <f t="shared" ref="X2:AD21" si="1">IF(OR(YEAR($K2)&lt;X$1,YEAR($J2)&gt;X$1),0,IF(YEAR($J2)=X$1,13-MONTH($J2),IF(YEAR($K2)=X$1,MONTH($K2),12)))*($S2/12)/($K2-$J2)*364</f>
         <v>0</v>
       </c>
@@ -5229,55 +5248,55 @@
       <c r="B3" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="57">
+      <c r="H3" s="54"/>
+      <c r="I3" s="56">
         <v>45474</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="56">
         <v>45536</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="56">
         <v>47361</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="57">
         <v>5100870</v>
       </c>
-      <c r="R3" s="96">
+      <c r="R3" s="93">
         <v>0.75</v>
       </c>
-      <c r="S3" s="97">
+      <c r="S3" s="94">
         <f>Q3*R3</f>
         <v>3825652.5</v>
       </c>
-      <c r="T3" s="67">
+      <c r="T3" s="6">
         <f t="shared" ref="T3:T21" si="2">(K3-J3)/364</f>
         <v>5.0137362637362637</v>
       </c>
@@ -5286,11 +5305,11 @@
         <v>7</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="60">
+      <c r="W3" s="59">
         <f t="shared" ref="W3:AD21" si="3">IF(OR(YEAR($K3)&lt;W$1,YEAR($J3)&gt;W$1),0,IF(YEAR($J3)=W$1,13-MONTH($J3),IF(YEAR($K3)=W$1,MONTH($K3),12)))*($S3/12)/($K3-$J3)*364</f>
         <v>0</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5328,64 +5347,64 @@
         <f t="shared" ref="A4:A21" si="4">A3+1</f>
         <v>102</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="91" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="57">
+      <c r="H4" s="64"/>
+      <c r="I4" s="56">
         <v>45352</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="56">
         <v>45383</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="56">
         <v>47208</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65" t="s">
+      <c r="O4" s="64"/>
+      <c r="P4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="59">
         <v>8000000</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="93">
         <v>0.5</v>
       </c>
-      <c r="S4" s="97">
+      <c r="S4" s="94">
         <f>Q4*R4</f>
         <v>4000000</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="60">
+      <c r="W4" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X4" s="60">
+      <c r="X4" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF21" si="5">SUM(W4:AD4)</f>
+        <f t="shared" ref="AF4:AF18" si="5">SUM(W4:AD4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5426,64 +5445,64 @@
       <c r="B5" s="6">
         <v>12</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="91" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="57">
+      <c r="H5" s="64"/>
+      <c r="I5" s="56">
         <v>45444</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <v>45474</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <v>47299</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65" t="s">
+      <c r="O5" s="64"/>
+      <c r="P5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="59">
         <v>17000000</v>
       </c>
-      <c r="R5" s="96">
+      <c r="R5" s="93">
         <v>0.75</v>
       </c>
-      <c r="S5" s="97">
+      <c r="S5" s="94">
         <f t="shared" ref="S5:S21" si="6">Q5*R5</f>
         <v>12750000</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="60">
+      <c r="W5" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X5" s="60">
+      <c r="X5" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5521,62 +5540,62 @@
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="57">
+      <c r="H6" s="64"/>
+      <c r="I6" s="56">
         <v>45444</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <v>45474</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>47299</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="59">
         <v>5500000</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="93">
         <v>0.25</v>
       </c>
-      <c r="S6" s="97">
+      <c r="S6" s="94">
         <f t="shared" si="6"/>
         <v>1375000</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V6" s="7"/>
-      <c r="W6" s="60">
+      <c r="W6" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X6" s="60">
+      <c r="X6" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5614,62 +5633,62 @@
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="57">
+      <c r="H7" s="64"/>
+      <c r="I7" s="56">
         <v>45444</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <v>45474</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <v>47299</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65" t="s">
+      <c r="O7" s="64"/>
+      <c r="P7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="59">
         <v>3000000</v>
       </c>
-      <c r="R7" s="96">
+      <c r="R7" s="93">
         <v>0.25</v>
       </c>
-      <c r="S7" s="97">
+      <c r="S7" s="94">
         <f t="shared" si="6"/>
         <v>750000</v>
       </c>
-      <c r="T7" s="67">
+      <c r="T7" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V7" s="7"/>
-      <c r="W7" s="60">
+      <c r="W7" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="60">
+      <c r="X7" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5707,62 +5726,62 @@
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="57">
+      <c r="H8" s="64"/>
+      <c r="I8" s="56">
         <v>45444</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="56">
         <v>45474</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="56">
         <v>47299</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65" t="s">
+      <c r="O8" s="64"/>
+      <c r="P8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="59">
         <v>4000000</v>
       </c>
-      <c r="R8" s="96">
+      <c r="R8" s="93">
         <v>0.25</v>
       </c>
-      <c r="S8" s="97">
+      <c r="S8" s="94">
         <f t="shared" si="6"/>
         <v>1000000</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="60">
+      <c r="W8" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="60">
+      <c r="X8" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5803,64 +5822,64 @@
       <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66">
+      <c r="H9" s="64"/>
+      <c r="I9" s="65">
         <v>45323</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="56">
         <v>45352</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="56">
         <v>47177</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55" t="s">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="57">
         <v>6000000</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="93">
         <v>0.75</v>
       </c>
-      <c r="S9" s="97">
+      <c r="S9" s="94">
         <f t="shared" si="6"/>
         <v>4500000</v>
       </c>
-      <c r="T9" s="67">
+      <c r="T9" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V9" s="7"/>
-      <c r="W9" s="60">
+      <c r="W9" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="60">
+      <c r="X9" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5898,62 +5917,62 @@
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="57">
+      <c r="H10" s="64"/>
+      <c r="I10" s="56">
         <v>45444</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="56">
         <v>45474</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="56">
         <v>47299</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65" t="s">
+      <c r="O10" s="64"/>
+      <c r="P10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="59">
         <v>2000000</v>
       </c>
-      <c r="R10" s="96">
+      <c r="R10" s="93">
         <v>0.25</v>
       </c>
-      <c r="S10" s="97">
+      <c r="S10" s="94">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="T10" s="67">
+      <c r="T10" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V10" s="7"/>
-      <c r="W10" s="60">
+      <c r="W10" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X10" s="60">
+      <c r="X10" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5986,67 +6005,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="6" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="57">
+      <c r="H11" s="64"/>
+      <c r="I11" s="56">
         <v>45444</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="56">
         <v>45474</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <v>47299</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65" t="s">
+      <c r="O11" s="64"/>
+      <c r="P11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="59">
         <v>3500000</v>
       </c>
-      <c r="R11" s="96">
+      <c r="R11" s="93">
         <v>0.25</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="94">
         <f t="shared" si="6"/>
         <v>875000</v>
       </c>
-      <c r="T11" s="67">
+      <c r="T11" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="60">
+      <c r="W11" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X11" s="60">
+      <c r="X11" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6079,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="6" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -6087,64 +6106,64 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66">
+      <c r="H12" s="64"/>
+      <c r="I12" s="65">
         <v>45444</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="56">
         <v>45474</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="56">
         <v>47299</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55" t="s">
+      <c r="O12" s="54"/>
+      <c r="P12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="58">
+      <c r="Q12" s="57">
         <v>4500000</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="93">
         <v>0.75</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="94">
         <f t="shared" si="6"/>
         <v>3375000</v>
       </c>
-      <c r="T12" s="67">
+      <c r="T12" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V12" s="7"/>
-      <c r="W12" s="60">
+      <c r="W12" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X12" s="60">
+      <c r="X12" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6177,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" si="4"/>
         <v>111</v>
@@ -6185,64 +6204,64 @@
       <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66">
+      <c r="H13" s="64"/>
+      <c r="I13" s="65">
         <v>45444</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="56">
         <v>45458</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="56">
         <v>47283</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55" t="s">
+      <c r="O13" s="54"/>
+      <c r="P13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="57">
         <v>6000000</v>
       </c>
-      <c r="R13" s="96">
+      <c r="R13" s="93">
         <v>0.75</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="94">
         <f t="shared" si="6"/>
         <v>4500000</v>
       </c>
-      <c r="T13" s="67">
+      <c r="T13" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
       <c r="V13" s="7"/>
-      <c r="W13" s="60">
+      <c r="W13" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X13" s="60">
+      <c r="X13" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6275,58 +6294,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="6" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66">
+      <c r="H14" s="64"/>
+      <c r="I14" s="65">
         <v>45444</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="56">
         <v>45474</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="56">
         <v>47299</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55" t="s">
+      <c r="O14" s="54"/>
+      <c r="P14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="Q14" s="57">
         <v>5000000</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="93">
         <v>0.25</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="94">
         <f t="shared" si="6"/>
         <v>1250000</v>
       </c>
-      <c r="T14" s="67">
+      <c r="T14" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
@@ -6368,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="6" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f t="shared" si="4"/>
         <v>113</v>
@@ -6376,53 +6395,53 @@
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="57">
+      <c r="H15" s="64"/>
+      <c r="I15" s="56">
         <v>45658</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="56">
         <v>45689</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="56">
         <v>47514</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="65" t="s">
+      <c r="N15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65" t="s">
+      <c r="O15" s="64"/>
+      <c r="P15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="57">
         <v>10500000</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="93">
         <v>0.75</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="94">
         <f t="shared" si="6"/>
         <v>7875000</v>
       </c>
-      <c r="T15" s="67">
+      <c r="T15" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
@@ -6464,54 +6483,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="57">
+      <c r="H16" s="64"/>
+      <c r="I16" s="56">
         <v>46127</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="56">
         <v>46143</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="56">
         <v>47968</v>
       </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="55" t="s">
+      <c r="L16" s="64"/>
+      <c r="M16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="74" t="s">
+      <c r="N16" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="72">
+      <c r="P16" s="73"/>
+      <c r="Q16" s="70">
         <v>3037919.65</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="93">
         <v>0.75</v>
       </c>
-      <c r="S16" s="97">
+      <c r="S16" s="94">
         <f t="shared" si="6"/>
         <v>2278439.7374999998</v>
       </c>
-      <c r="T16" s="67">
+      <c r="T16" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
@@ -6550,7 +6569,7 @@
       </c>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" s="6" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -6558,53 +6577,53 @@
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="57">
+      <c r="G17" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="56">
         <v>45748</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="56">
         <v>45778</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="56">
         <v>47603</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65" t="s">
+      <c r="O17" s="64"/>
+      <c r="P17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="99">
+      <c r="Q17" s="96">
         <v>4000000</v>
       </c>
-      <c r="R17" s="100">
+      <c r="R17" s="97">
         <v>0.75</v>
       </c>
-      <c r="S17" s="101">
+      <c r="S17" s="98">
         <f t="shared" si="6"/>
         <v>3000000</v>
       </c>
-      <c r="T17" s="67">
+      <c r="T17" s="6">
         <f t="shared" si="2"/>
         <v>5.0137362637362637</v>
       </c>
@@ -6651,47 +6670,47 @@
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="57">
+      <c r="F18" s="5"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="56">
         <v>45536</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="56">
         <f t="shared" ref="J18:J21" si="7">I18</f>
         <v>45536</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="56">
         <f>EDATE(I18,60)</f>
         <v>47362</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65" t="s">
+      <c r="M18" s="64"/>
+      <c r="N18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="58">
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="57">
         <v>10000000</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="93">
         <v>0.25</v>
       </c>
-      <c r="S18" s="97">
+      <c r="S18" s="94">
         <f t="shared" si="6"/>
         <v>2500000</v>
       </c>
-      <c r="T18" s="67">
+      <c r="T18" s="6">
         <f t="shared" si="2"/>
         <v>5.0164835164835164</v>
       </c>
@@ -6738,48 +6757,48 @@
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="57">
+      <c r="F19" s="5"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="56">
         <f>EDATE(I18,6)</f>
         <v>45717</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="56">
         <f t="shared" si="7"/>
         <v>45717</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="56">
         <f t="shared" ref="K19:K21" si="8">EDATE(I19,60)</f>
         <v>47543</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65" t="s">
+      <c r="M19" s="64"/>
+      <c r="N19" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="58">
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="57">
         <v>10000000</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="93">
         <v>0.25</v>
       </c>
-      <c r="S19" s="97">
+      <c r="S19" s="94">
         <f t="shared" si="6"/>
         <v>2500000</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="6">
         <f t="shared" si="2"/>
         <v>5.0164835164835164</v>
       </c>
@@ -6826,48 +6845,48 @@
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="57">
+      <c r="F20" s="5"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="56">
         <f t="shared" ref="I20" si="10">EDATE(I19,6)</f>
         <v>45901</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="56">
         <f t="shared" si="7"/>
         <v>45901</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="56">
         <f t="shared" si="8"/>
         <v>47727</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65" t="s">
+      <c r="M20" s="64"/>
+      <c r="N20" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="58">
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="57">
         <v>10000000</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="93">
         <v>0.3</v>
       </c>
-      <c r="S20" s="97">
+      <c r="S20" s="94">
         <f t="shared" si="6"/>
         <v>3000000</v>
       </c>
-      <c r="T20" s="67">
+      <c r="T20" s="6">
         <f t="shared" si="2"/>
         <v>5.0164835164835164</v>
       </c>
@@ -6914,46 +6933,46 @@
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="57">
+      <c r="E21" s="53"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="56">
         <f>EDATE(I20,3)</f>
         <v>45992</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="56">
         <f t="shared" si="7"/>
         <v>45992</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="56">
         <f t="shared" si="8"/>
         <v>47818</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65" t="s">
+      <c r="M21" s="64"/>
+      <c r="N21" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="58">
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="57">
         <v>10000000</v>
       </c>
-      <c r="R21" s="96">
+      <c r="R21" s="93">
         <v>0.3</v>
       </c>
-      <c r="S21" s="97">
+      <c r="S21" s="94">
         <f t="shared" si="6"/>
         <v>3000000</v>
       </c>
-      <c r="T21" s="67">
+      <c r="T21" s="6">
         <f t="shared" si="2"/>
         <v>5.0164835164835164</v>
       </c>
